--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -423,7 +423,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算10万：64011</t>
+    <t>阻容面包板等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算10万：64076</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,11 +758,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -768,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1542,22 +1544,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>72</v>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106">
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108">
-        <v>158</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B109">
         <v>158</v>
@@ -1565,188 +1567,188 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>117</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>75</v>
-      </c>
-      <c r="B115">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B116">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B129">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B130">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B133">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134">
         <v>57</v>
@@ -1754,25 +1756,33 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B135">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>97</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>预算10万：64076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形磁环 x4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,9 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1552,22 +1558,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>72</v>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109">
-        <v>158</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B110">
         <v>158</v>
@@ -1575,188 +1581,188 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B122">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B125">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B126">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B130">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B131">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135">
         <v>57</v>
@@ -1764,25 +1770,33 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B136">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>97</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="583" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>预算10万：</t>
   </si>
@@ -417,16 +421,21 @@
   </si>
   <si>
     <t>其他未统计估计</t>
+  </si>
+  <si>
+    <t>PCB制板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U盾切换器 V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -435,19 +444,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,7 +459,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -467,1119 +467,1370 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2474226804124"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8865979381443"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.73711340206186"/>
+    <col min="1" max="1" width="29.25"/>
+    <col min="2" max="2" width="26.875"/>
+    <col min="3" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B200)</f>
-        <v>64326</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1">
+        <f>SUM(B4:B203)</f>
+        <v>64489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>11788</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>7600</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>250</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>900</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>161</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>445</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>531</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>516</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>220</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>58</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>478</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>132</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>304</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>390</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>199</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>210</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>190</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>143</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>98</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>150</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>264</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>240</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>230</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>288</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>720</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>550</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>120</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>3700</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>450</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>233</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>4150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>1588</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>2650</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>399</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>300</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>747</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>350</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>370</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>150</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>290</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>200</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>100</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B87">
         <v>150</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B88">
         <v>93</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B89">
         <v>60</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B90">
         <v>115</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B91">
         <v>73</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B92">
         <v>60</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B93">
         <v>28</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B94">
         <v>221</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B95">
         <v>35</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>87</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B96">
         <v>210</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B97">
         <v>40</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B98">
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B99">
         <v>70</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B100">
         <v>20</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>92</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B101">
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B102">
         <v>15</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B103">
         <v>50</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B104">
         <v>40</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B105">
         <v>90</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B106">
         <v>30</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B107">
         <v>74</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B108">
         <v>76</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B109">
         <v>65</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B110">
         <v>20</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B111">
         <v>85</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>103</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B112">
         <v>145</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B115">
         <v>158</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B116">
         <v>158</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B117">
         <v>6</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B118">
         <v>45</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B119">
         <v>99</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B122">
         <v>45</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B123">
         <v>387</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B124">
         <v>152</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B125">
         <v>517</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B126">
         <v>74</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B127">
         <v>400</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>117</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B128">
         <v>63</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>118</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B129">
         <v>40</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B130">
         <v>108</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>120</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B131">
         <v>24</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B132">
         <v>64</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>122</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B133">
         <v>30</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>123</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B134">
         <v>60</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B135">
         <v>43</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B136">
         <v>50</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>126</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B137">
         <v>30</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B138">
         <v>40</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>128</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B139">
         <v>65</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>129</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B140">
         <v>57</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>130</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B141">
         <v>57</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>131</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B142">
         <v>193</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>132</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B143">
         <v>200</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>133</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B144">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="583" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>预算10万：</t>
   </si>
@@ -426,16 +430,17 @@
   </si>
   <si>
     <t>其他未统计估计</t>
+  </si>
+  <si>
+    <t>试验挡板pcb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,19 +449,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,7 +464,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -476,1140 +472,1386 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2474226804124"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8762886597938"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75773195876289"/>
+    <col min="1" max="1" width="29.25"/>
+    <col min="2" max="2" width="26.875"/>
+    <col min="3" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B204)</f>
-        <v>64555</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1">
+        <f>SUM(B4:B205)</f>
+        <v>64618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>11788</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>7600</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>250</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>900</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>161</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>445</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>531</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>516</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>220</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>58</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>478</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>132</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>304</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>390</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>199</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>210</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>190</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>143</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>98</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>150</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>264</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>240</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>230</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>288</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>720</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>550</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>120</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>3700</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>450</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>233</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>4150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>1588</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>2650</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>399</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>300</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>747</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>350</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>370</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>150</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>290</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>200</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>100</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>163</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B88">
         <v>150</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B89">
         <v>93</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B90">
         <v>60</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B91">
         <v>115</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B92">
         <v>73</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B93">
         <v>60</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B94">
         <v>28</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B95">
         <v>221</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B96">
         <v>35</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B97">
         <v>210</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B98">
         <v>40</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B99">
         <v>26</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B100">
         <v>70</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B101">
         <v>20</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B102">
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B103">
         <v>15</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B104">
         <v>50</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B105">
         <v>40</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B106">
         <v>90</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B107">
         <v>30</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B108">
         <v>74</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B109">
         <v>76</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B110">
         <v>65</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B111">
         <v>20</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B112">
         <v>85</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B113">
         <v>145</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B114">
         <v>66</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>108</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B117">
         <v>158</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>109</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B118">
         <v>158</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>110</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B119">
         <v>6</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B120">
         <v>45</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B121">
         <v>99</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B124">
         <v>45</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B125">
         <v>387</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B126">
         <v>152</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B127">
         <v>517</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>118</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B128">
         <v>74</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B129">
         <v>400</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B130">
         <v>63</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B131">
         <v>40</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B132">
         <v>108</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B133">
         <v>24</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B134">
         <v>64</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B135">
         <v>30</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B136">
         <v>60</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B137">
         <v>43</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B138">
         <v>50</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B139">
         <v>30</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B140">
         <v>40</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B141">
         <v>65</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B142">
         <v>57</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B143">
         <v>57</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B144">
         <v>193</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B145">
         <v>200</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B146">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>预算10万：</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>4段音频线 x20</t>
+  </si>
+  <si>
+    <t>MP2565/MP2359/CE3150等</t>
+  </si>
+  <si>
+    <t>OTS-16-03  5个</t>
+  </si>
+  <si>
+    <t>MP45D02数字麦克风</t>
   </si>
   <si>
     <t>资料费用</t>
@@ -526,10 +535,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E128" activeCellId="0" sqref="E128"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G124" activeCellId="0" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,8 +553,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B205)</f>
-        <v>64664</v>
+        <f aca="false">SUM(B4:B208)</f>
+        <v>64798</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,41 +1389,41 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>158</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,44 +1431,44 @@
         <v>113</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>99</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>387</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="0" t="n">
-        <v>152</v>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>118</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>517</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,7 +1476,7 @@
         <v>119</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1484,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>400</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1492,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>63</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1500,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1508,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>108</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1516,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1524,7 @@
         <v>125</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1532,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1540,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1548,7 @@
         <v>128</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1556,7 @@
         <v>129</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1564,7 @@
         <v>130</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1572,7 @@
         <v>131</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1580,7 @@
         <v>132</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1588,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,7 +1596,7 @@
         <v>134</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1604,7 @@
         <v>135</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>193</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1612,7 @@
         <v>136</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,6 +1620,30 @@
         <v>137</v>
       </c>
       <c r="B146" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="0" t="n">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="583" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>预算10万：</t>
   </si>
@@ -438,16 +442,17 @@
   </si>
   <si>
     <t>其他未统计估计</t>
+  </si>
+  <si>
+    <t>stm32f405 x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,19 +461,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -480,7 +476,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -488,1172 +484,1418 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G124" activeCellId="0" sqref="G124"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2474226804124"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8762886597938"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75773195876289"/>
+    <col min="1" max="1" width="29.25"/>
+    <col min="2" max="2" width="26.875"/>
+    <col min="3" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B208)</f>
-        <v>64798</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1">
+        <f>SUM(B4:B209)</f>
+        <v>64925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>11788</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>7600</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>250</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>900</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>161</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>445</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>531</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>516</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>220</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>58</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>478</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>148</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>132</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>304</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>390</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>199</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>210</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>190</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>98</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>143</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>88</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>98</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>150</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>264</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>130</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>240</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>230</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>288</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>720</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>550</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>120</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>64</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>3700</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>450</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>233</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>4150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>1588</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>2650</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>399</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>300</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>747</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>350</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>370</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>150</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>300</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>290</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>200</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>100</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>163</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>63</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>150</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>93</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>60</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>115</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>73</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>60</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>28</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>221</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>35</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>210</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>40</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>26</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>70</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>20</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>70</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>15</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>50</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>40</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>90</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>30</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>74</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>76</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>65</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>20</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>85</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>145</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>50</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>55</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>110</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>29</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>112</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B121">
         <v>158</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B122">
         <v>158</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B123">
         <v>6</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B124">
         <v>45</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B125">
         <v>99</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>118</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B128">
         <v>45</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B129">
         <v>387</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B130">
         <v>152</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B131">
         <v>517</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B132">
         <v>74</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B133">
         <v>400</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B134">
         <v>63</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B135">
         <v>40</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B136">
         <v>108</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B137">
         <v>24</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B138">
         <v>64</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B139">
         <v>30</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B140">
         <v>60</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B141">
         <v>43</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B142">
         <v>50</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B143">
         <v>30</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>134</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B144">
         <v>40</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>135</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B145">
         <v>65</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B146">
         <v>57</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B147">
         <v>57</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B148">
         <v>193</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
         <v>139</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B149">
         <v>200</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>140</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B150">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>预算10万：</t>
   </si>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>stm32f405 x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F042G4  x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F042G6  x10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,8 +799,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B209)</f>
-        <v>64925</v>
+        <f>SUM(B4:B211)</f>
+        <v>65080</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1659,237 +1667,253 @@
         <v>127</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119">
+        <v>80</v>
+      </c>
+    </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B120">
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B123">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B125">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126">
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128">
-        <v>45</v>
+        <v>116</v>
+      </c>
+      <c r="B127">
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129">
-        <v>387</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B130">
-        <v>152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B131">
-        <v>517</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B132">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B133">
-        <v>400</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B134">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B135">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B136">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B137">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B138">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B139">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B140">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B141">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B142">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B143">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B144">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B145">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B146">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B147">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B148">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B149">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
         <v>140</v>
       </c>
-      <c r="B150">
+      <c r="B152">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7665" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>预算10万：</t>
   </si>
@@ -453,6 +453,10 @@
   </si>
   <si>
     <t>STM32F042G6  x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYNQ-Z1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,8 +803,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B211)</f>
-        <v>65080</v>
+        <f>SUM(B4:B212)</f>
+        <v>66180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -911,244 +915,244 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>161</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>445</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>531</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>58</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>478</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>148</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>400</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>132</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>304</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>390</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>199</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>88</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>264</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>240</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -1156,549 +1160,549 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>288</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>720</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>80</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55">
-        <v>550</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60">
-        <v>6400</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61">
-        <v>3700</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>1000</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>233</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>4150</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66">
-        <v>2400</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>1588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70">
-        <v>2650</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>399</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72">
-        <v>300</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <v>747</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74">
-        <v>51</v>
+        <v>747</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75">
-        <v>350</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77">
-        <v>150</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>76</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>79</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
-        <v>210</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B118">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>143</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124">
         <v>158</v>
@@ -1706,188 +1710,188 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B126">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>116</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B131">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B132">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B133">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B135">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B137">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B138">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B139">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B140">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B141">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B142">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B144">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B148">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B149">
         <v>57</v>
@@ -1895,25 +1899,33 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B151">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
         <v>140</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>预算10万：</t>
   </si>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>PYNQ-Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基+10uH电感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,8 +807,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B212)</f>
-        <v>66180</v>
+        <f>SUM(B4:B213)</f>
+        <v>66205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1695,22 +1699,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>111</v>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>158</v>
@@ -1718,188 +1722,188 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>116</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>118</v>
-      </c>
-      <c r="B131">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B132">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B138">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B139">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B140">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B142">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B148">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B149">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150">
         <v>57</v>
@@ -1907,25 +1911,33 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
         <v>140</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="583" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6825" tabRatio="583"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -299,9 +303,6 @@
     <t>Qfn20/28 转接板</t>
   </si>
   <si>
-    <t>1.2国标线（红/黑）</t>
-  </si>
-  <si>
     <t>单节锂电池</t>
   </si>
   <si>
@@ -456,16 +457,17 @@
   </si>
   <si>
     <t>其他未统计估计</t>
+  </si>
+  <si>
+    <t>1.2国标线（红/黑/白/绿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -474,19 +476,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,7 +491,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -506,1220 +499,1458 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G131" activeCellId="0" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2474226804124"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8762886597938"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75773195876289"/>
+    <col min="1" max="1" width="29.25"/>
+    <col min="2" max="2" width="26.875"/>
+    <col min="3" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B214)</f>
-        <v>66285</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B1">
+        <f>SUM(B4:B214)</f>
+        <v>66355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>11788</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>7600</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>250</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>900</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>161</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>445</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>531</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>516</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>220</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>478</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>148</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>132</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>304</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>390</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>199</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>70</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>210</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>190</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>98</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>143</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>88</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>98</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>150</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>264</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>130</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>240</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>100</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>30</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>230</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>288</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>720</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>80</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>550</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>120</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>64</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>6400</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>450</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>233</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>4150</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>2400</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>1588</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>2650</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>399</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>300</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>747</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>51</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>350</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>370</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>150</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>300</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>290</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>200</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>100</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>163</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>63</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>150</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>93</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>60</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>115</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>73</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>60</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>28</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>221</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>35</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>210</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>40</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="0" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112">
         <v>20</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="0" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116">
         <v>50</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130">
         <v>99</v>
       </c>
-      <c r="B106" s="0" t="n">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>127</v>
+      </c>
+      <c r="B137">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B140">
         <v>40</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" s="0" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144">
         <v>30</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="0" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150">
         <v>65</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="0" t="n">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B115" s="0" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="0" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B122" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="0" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="0" t="n">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B135" s="0" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B136" s="0" t="n">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B137" s="0" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B138" s="0" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B139" s="0" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B140" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="0" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" s="0" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B147" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B148" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B150" s="0" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B151" s="0" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="0" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B153" s="0" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B154" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
-  <si>
-    <t>预算10万：</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t>预算10万：收益300万</t>
   </si>
   <si>
     <t>电脑相关：</t>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>IS62WV5128BLL-55HLI  5片</t>
+  </si>
+  <si>
+    <t>AO4803 20片</t>
+  </si>
+  <si>
+    <t>2.54 5mm高 10p 双排孔</t>
+  </si>
+  <si>
+    <t>F401RC cs4344 w5500 sgm8904</t>
   </si>
   <si>
     <t>资料费用</t>
@@ -556,10 +565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I124" activeCellId="0" sqref="I124"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -574,8 +583,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <f aca="false">SUM(B4:B215)</f>
-        <v>66385</v>
+        <f aca="false">SUM(B4:B218)</f>
+        <v>66648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,41 +1499,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <v>158</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>122</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,44 +1541,44 @@
         <v>123</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>99</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B135" s="0" t="n">
-        <v>387</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="0" t="n">
-        <v>152</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>517</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1586,7 @@
         <v>129</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1594,7 @@
         <v>130</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>400</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1602,7 @@
         <v>131</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>63</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,7 +1610,7 @@
         <v>132</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1618,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>108</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,7 +1626,7 @@
         <v>134</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1634,7 @@
         <v>135</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1642,7 @@
         <v>136</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1650,7 @@
         <v>137</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1658,7 @@
         <v>138</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1666,7 @@
         <v>139</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,7 +1674,7 @@
         <v>140</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,7 +1682,7 @@
         <v>141</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1690,7 @@
         <v>142</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1698,7 @@
         <v>143</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,7 +1706,7 @@
         <v>144</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,7 +1714,7 @@
         <v>145</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>193</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1722,7 @@
         <v>146</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,6 +1730,30 @@
         <v>147</v>
       </c>
       <c r="B156" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B159" s="0" t="n">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t>预算30万：收益300万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE 4口路由器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,8 +826,8 @@
         <v>151</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B219)</f>
-        <v>66780</v>
+        <f>SUM(B4:B220)</f>
+        <v>66850</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1770,22 +1774,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>120</v>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129">
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132">
         <v>158</v>
@@ -1793,188 +1797,188 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B134">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>125</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138">
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B139">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B140">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B146">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B148">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B151">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B152">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B153">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B154">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B155">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B156">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157">
         <v>57</v>
@@ -1982,25 +1986,33 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B158">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
         <v>149</v>
       </c>
-      <c r="B160">
+      <c r="B161">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>OTS-16-03  5个</t>
-  </si>
-  <si>
-    <t>MP45D02数字麦克风</t>
   </si>
   <si>
     <t>stm32f405 x5</t>
@@ -480,6 +477,14 @@
   </si>
   <si>
     <t>POE 4口路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS2812B x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP45DT02 数字麦克风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,11 +828,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B220)</f>
-        <v>66850</v>
+        <f>SUM(B4:B221)</f>
+        <v>66857</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1688,7 +1693,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <v>29</v>
@@ -1696,7 +1701,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119">
         <v>127</v>
@@ -1704,7 +1709,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B120">
         <v>80</v>
@@ -1712,7 +1717,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>75</v>
@@ -1720,7 +1725,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>25</v>
@@ -1728,7 +1733,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B123">
         <v>80</v>
@@ -1736,7 +1741,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124">
         <v>30</v>
@@ -1744,7 +1749,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125">
         <v>10</v>
@@ -1752,7 +1757,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126">
         <v>20</v>
@@ -1760,7 +1765,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127">
         <v>233</v>
@@ -1768,7 +1773,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128">
         <v>132</v>
@@ -1776,28 +1781,28 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>120</v>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130">
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B132">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>158</v>
@@ -1805,188 +1810,188 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B136">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137">
         <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B140">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B141">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B142">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B143">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B144">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B145">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B146">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B147">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B148">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B149">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B150">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B151">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B152">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B153">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B154">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B155">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B156">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B157">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B158">
         <v>57</v>
@@ -1994,25 +1999,33 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B159">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B160">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>MP45DT02 数字麦克风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR891156C x5   7元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,8 +835,8 @@
         <v>150</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B221)</f>
-        <v>66857</v>
+        <f>SUM(B4:B222)</f>
+        <v>66902</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1795,22 +1799,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>119</v>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131">
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>120</v>
-      </c>
-      <c r="B133">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>158</v>
@@ -1818,188 +1822,188 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>124</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>126</v>
-      </c>
-      <c r="B140">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B141">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B142">
-        <v>152</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B143">
-        <v>517</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B144">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B149">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B151">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B154">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B156">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B157">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B158">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B159">
         <v>57</v>
@@ -2007,25 +2011,33 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B161">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
         <v>148</v>
       </c>
-      <c r="B162">
+      <c r="B163">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -476,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POE 4口路由器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WS2812B x20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,6 +485,10 @@
   </si>
   <si>
     <t>HR891156C x5   7元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp-link POE 4口路由器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +820,7 @@
   <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="B1">
         <f>SUM(B4:B222)</f>
-        <v>66902</v>
+        <v>66947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118">
         <v>29</v>
@@ -1785,15 +1785,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B129">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>45</v>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -489,6 +489,10 @@
   </si>
   <si>
     <t>tp-link POE 4口路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450mah 600mah 电池 5块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,8 +839,8 @@
         <v>150</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B222)</f>
-        <v>66947</v>
+        <f>SUM(B4:B224)</f>
+        <v>66992</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1807,237 +1811,245 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>120</v>
-      </c>
-      <c r="B134">
-        <v>158</v>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132">
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>121</v>
-      </c>
-      <c r="B135">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B137">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B138">
-        <v>99</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139">
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>126</v>
-      </c>
-      <c r="B141">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="B140">
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142">
-        <v>387</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B143">
-        <v>152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B144">
-        <v>517</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B145">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B146">
-        <v>400</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B148">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B149">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B150">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B151">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B152">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B153">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B154">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B155">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B156">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B157">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B158">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B159">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B160">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B161">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B162">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
         <v>148</v>
       </c>
-      <c r="B163">
+      <c r="B165">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6825" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -273,12 +273,6 @@
     <t>STM32F103 x10</t>
   </si>
   <si>
-    <t>F330+F321 x10 x10</t>
-  </si>
-  <si>
-    <t>F330 x20</t>
-  </si>
-  <si>
     <t>USB2412 x10</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>OTS-16-03  5个</t>
   </si>
   <si>
-    <t>stm32f405 x5</t>
-  </si>
-  <si>
     <t>STM32F042G4  x10</t>
   </si>
   <si>
@@ -373,9 +364,6 @@
   </si>
   <si>
     <t>2.54 5mm高 10p 双排孔</t>
-  </si>
-  <si>
-    <t>F401RC cs4344 w5500 sgm8904</t>
   </si>
   <si>
     <t>资料费用</t>
@@ -472,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算30万：收益300万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WS2812B x20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,6 +477,30 @@
   </si>
   <si>
     <t>450mah 600mah 电池 5块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs4344 w5500 sgm8904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32f405 x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32F401RCT6 x10 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F401CCU6 x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F330 x30 F321 x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算10万:100万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,12 +523,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -537,8 +551,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,11 +853,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1">
-        <f>SUM(B4:B224)</f>
-        <v>66992</v>
+        <f>SUM(B4:B228)</f>
+        <v>67102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1483,316 +1500,300 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91">
-        <v>60</v>
-      </c>
-    </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B93">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94">
-        <v>60</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B95">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B96">
-        <v>221</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B97">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98">
-        <v>210</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B99">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B100">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B101">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B103">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B105">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B106">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B107">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B108">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B109">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B110">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B111">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B113">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B114">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B115">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B116">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B117">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B118">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B119">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B120">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121">
         <v>112</v>
-      </c>
-      <c r="B121">
-        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B123">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B124">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B127">
-        <v>233</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B128">
-        <v>132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B129">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1800,78 +1801,81 @@
         <v>151</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B131">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B132">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134">
         <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>120</v>
-      </c>
-      <c r="B136">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>121</v>
-      </c>
-      <c r="B137">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>122</v>
-      </c>
-      <c r="B138">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="B135">
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>123</v>
-      </c>
-      <c r="B139">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B140">
-        <v>99</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141">
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B143">
         <v>45</v>
@@ -1879,119 +1883,108 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B144">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>128</v>
-      </c>
-      <c r="B145">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146">
-        <v>517</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B147">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B148">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B149">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B150">
-        <v>40</v>
+        <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B151">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B152">
-        <v>24</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B153">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B154">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B155">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B156">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B157">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -1999,57 +1992,89 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B159">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B160">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B161">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B162">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B163">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B164">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B165">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169">
         <v>500</v>
       </c>
     </row>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6825" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6825" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>预算10万:100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI3402  POE芯片 x5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,7 +861,7 @@
       </c>
       <c r="B1">
         <f>SUM(B4:B228)</f>
-        <v>67102</v>
+        <v>67135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1842,6 +1846,14 @@
       </c>
       <c r="B135">
         <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136">
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">

--- a/data/bill.xlsx
+++ b/data/bill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6825" tabRatio="583"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>电脑相关：</t>
   </si>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>SI3402  POE芯片 x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N51822-QFAA  x10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -844,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,7 +865,7 @@
       </c>
       <c r="B1">
         <f>SUM(B4:B228)</f>
-        <v>67135</v>
+        <v>67199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1854,6 +1858,14 @@
       </c>
       <c r="B136">
         <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137">
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
